--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7443</v>
+        <v>71162</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Milena Nascimento</t>
+          <t>Milena Carvalho</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="G2" t="n">
-        <v>8591.389999999999</v>
+        <v>7447.9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94102</v>
+        <v>59149</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Aragão</t>
+          <t>Camila Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G3" t="n">
-        <v>4344.86</v>
+        <v>8795.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4406</v>
+        <v>69045</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Maria Alice Alves</t>
+          <t>Juan Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>3972.3</v>
+        <v>11109.93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28366</v>
+        <v>37110</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruna da Costa</t>
+          <t>Larissa da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>11679.42</v>
+        <v>10924.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32474</v>
+        <v>90167</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Pedro Pereira</t>
+          <t>Samuel Ferreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>12386.31</v>
+        <v>8975.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15673</v>
+        <v>37098</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno Barbosa</t>
+          <t>Davi Lucas da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,129 +639,129 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>6434.46</v>
+        <v>4517.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59457</v>
+        <v>69521</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Henrique Barbosa</t>
+          <t>Ana Beatriz Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>11533.76</v>
+        <v>2866.02</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39677</v>
+        <v>9008</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Júlia da Rosa</t>
+          <t>Davi Lucca Martins</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45086</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>9494.77</v>
+        <v>3653.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62640</v>
+        <v>61199</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otávio Cavalcanti</t>
+          <t>Otávio Lima</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>4313.52</v>
+        <v>5080.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31905</v>
+        <v>5525</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo da Cruz</t>
+          <t>Gustavo Henrique Cavalcanti</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>6453.86</v>
+        <v>10468.58</v>
       </c>
     </row>
   </sheetData>
